--- a/结果/resob11192016.xlsx
+++ b/结果/resob11192016.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ex\SAHS\结果\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F0D3834C-AAE1-4D53-8B76-40D3B2A6519B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CE4BDC8E-E70F-4554-8325-2266A94B2F0E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>no</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,6 +52,26 @@
   </si>
   <si>
     <t>1 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -132,13 +153,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,15 +466,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y24"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -518,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -588,11 +612,17 @@
       <c r="W2">
         <v>21.14748488650622</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="X2">
+        <v>2</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -662,11 +692,17 @@
       <c r="W3">
         <v>47.754772788383967</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,11 +772,17 @@
       <c r="W4">
         <v>29.184000000000001</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="X4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="Y4">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -810,8 +852,14 @@
       <c r="W5">
         <v>8.5759661196400216</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -879,11 +927,17 @@
       <c r="W6">
         <v>0</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -953,11 +1007,17 @@
       <c r="W7">
         <v>14.6662488248198</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1027,8 +1087,14 @@
       <c r="W8">
         <v>44.769110357422377</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X8">
+        <v>3</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1098,11 +1164,17 @@
       <c r="W9">
         <v>14.526779163609691</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1172,11 +1244,17 @@
       <c r="W10">
         <v>11.081370449678801</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1246,11 +1324,17 @@
       <c r="W11">
         <v>40.974440894568687</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1320,8 +1404,14 @@
       <c r="W12">
         <v>7.1415689810640206</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1391,8 +1481,14 @@
       <c r="W13">
         <v>18.09381980640358</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1462,8 +1558,14 @@
       <c r="W14">
         <v>20.919807404947701</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1533,8 +1635,14 @@
       <c r="W15">
         <v>7.03125</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1604,8 +1712,14 @@
       <c r="W16">
         <v>22.007722007722009</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1675,8 +1789,14 @@
       <c r="W17">
         <v>3.842869342442357</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1746,8 +1866,14 @@
       <c r="W18">
         <v>46.987165542745267</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X18">
+        <v>2</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1817,8 +1943,14 @@
       <c r="W19">
         <v>32.647718773373228</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1888,8 +2020,14 @@
       <c r="W20">
         <v>74.305555555555557</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1959,8 +2097,14 @@
       <c r="W21">
         <v>16.365109370780448</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2030,8 +2174,14 @@
       <c r="W22">
         <v>48.958979356782137</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X22">
+        <v>3</v>
+      </c>
+      <c r="Y22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2101,8 +2251,14 @@
       <c r="W23">
         <v>44.304791830322067</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2171,6 +2327,93 @@
       </c>
       <c r="W24">
         <v>24.480556376281282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>5</v>
+      </c>
+      <c r="H35">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2178,4 +2421,460 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54CAAEA5-045F-437B-82EC-BE0F2D9C7B9C}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
+        <v>100</v>
+      </c>
+      <c r="B1" s="4">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4">
+        <v>30</v>
+      </c>
+      <c r="D1" s="4">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>200</v>
+      </c>
+      <c r="B6" s="4">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50</v>
+      </c>
+      <c r="F6" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>200</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>200</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>200</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>200</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>200</v>
+      </c>
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>200</v>
+      </c>
+      <c r="C12" s="4">
+        <v>10</v>
+      </c>
+      <c r="D12" s="4">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>200</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>50</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100</v>
+      </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>100</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4">
+        <v>200</v>
+      </c>
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>200</v>
+      </c>
+      <c r="C16" s="4">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4">
+        <v>200</v>
+      </c>
+      <c r="F16" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
+        <v>100</v>
+      </c>
+      <c r="F17" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>25</v>
+      </c>
+      <c r="F19" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>200</v>
+      </c>
+      <c r="B21" s="4">
+        <v>50</v>
+      </c>
+      <c r="C21" s="4">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>200</v>
+      </c>
+      <c r="E21" s="4">
+        <v>50</v>
+      </c>
+      <c r="F21" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>200</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4">
+        <v>200</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>